--- a/projects/Attendance.xlsx
+++ b/projects/Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiantes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\Excel-Simulator2\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF3F92-8317-46F8-A9F4-B0D7B68B6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FCC64-B99E-4C97-AB70-A1AB4E88C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{214861BC-B743-4410-BDD2-A0B5E1D63833}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8130" xr2:uid="{214861BC-B743-4410-BDD2-A0B5E1D63833}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -1057,6 +1057,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,33 +1093,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent2" xfId="1" builtinId="36"/>
@@ -1101,6 +1101,33 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1179,33 +1206,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2595,10 +2595,10 @@
     <tableColumn id="6" xr3:uid="{910BE1BD-711B-43F6-A3C0-5D100804C7C1}" name="Test 2" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{5785DC68-2D95-4114-9AA8-A3AB4C41C68B}" name="Test 3" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{34603DCB-DADD-4BE8-A809-F62D9B4D42E4}" name="Test 4" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{98C6C212-55EB-4044-B945-4707F885B214}" name="Overall Score" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{98C6C212-55EB-4044-B945-4707F885B214}" name="Overall Score" dataDxfId="8">
       <calculatedColumnFormula>SUM(E4:H4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6359A829-72CC-4EF3-8B25-22F948BF0532}" name="Percentage" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{6359A829-72CC-4EF3-8B25-22F948BF0532}" name="Percentage" dataDxfId="7">
       <calculatedColumnFormula>(Table1[[#This Row],[Overall Score]]/4)*0.01</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2607,13 +2607,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47D2AE96-65D6-4BC0-9F79-C35D38708AA9}" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" dataDxfId="0" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47D2AE96-65D6-4BC0-9F79-C35D38708AA9}" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" dataDxfId="6" dataCellStyle="Percent">
   <autoFilter ref="A1:D12" xr:uid="{47D2AE96-65D6-4BC0-9F79-C35D38708AA9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{54466DB9-4235-47F2-B4EC-D3F322E4E6AE}" name="Week Number "/>
-    <tableColumn id="2" xr3:uid="{CAC705C6-15AD-4152-86FC-2ED814DC4B7F}" name="Average Attendance" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{3351E709-1E94-469B-BCF6-1FA289EAA8CE}" name="This year" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{CB5A6AE0-D276-44CE-8A7B-F6790186C7DF}" name="Last Year" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CAC705C6-15AD-4152-86FC-2ED814DC4B7F}" name="Average Attendance" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{3351E709-1E94-469B-BCF6-1FA289EAA8CE}" name="This year" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{CB5A6AE0-D276-44CE-8A7B-F6790186C7DF}" name="Last Year" dataDxfId="3" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2938,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCBACE7-D4BC-4C65-9771-0AE4C48AF91B}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2950,10 +2950,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2968,19 +2968,19 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="2">
@@ -8285,14 +8285,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5:M120">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>95</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8322,18 +8322,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10505,146 +10505,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="22" cm="1">
+      <c r="B2" s="19" cm="1">
         <f t="array" ref="B2">AVERAGEIF(Class,$A2,Test1)</f>
         <v>71.545454545454547</v>
       </c>
-      <c r="C2" s="22" cm="1">
+      <c r="C2" s="19" cm="1">
         <f t="array" ref="C2">AVERAGEIF(Class,$A2,Test2)</f>
         <v>73.272727272727266</v>
       </c>
-      <c r="D2" s="22" cm="1">
+      <c r="D2" s="19" cm="1">
         <f t="array" ref="D2">AVERAGEIF(Class,$A2,Test3)</f>
         <v>77.090909090909093</v>
       </c>
-      <c r="E2" s="22" cm="1">
+      <c r="E2" s="19" cm="1">
         <f t="array" ref="E2">AVERAGEIF(Class,$A2,Test4)</f>
         <v>80.090909090909093</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <f>AVERAGE(B2:E2)</f>
         <v>75.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="22" cm="1">
+      <c r="B3" s="19" cm="1">
         <f t="array" ref="B3">AVERAGEIF(Class,$A3,Test1)</f>
         <v>79.181818181818187</v>
       </c>
-      <c r="C3" s="22" cm="1">
+      <c r="C3" s="19" cm="1">
         <f t="array" ref="C3">AVERAGEIF(Class,$A3,Test2)</f>
         <v>70.818181818181813</v>
       </c>
-      <c r="D3" s="22" cm="1">
+      <c r="D3" s="19" cm="1">
         <f t="array" ref="D3">AVERAGEIF(Class,$A3,Test3)</f>
         <v>72.181818181818187</v>
       </c>
-      <c r="E3" s="22" cm="1">
+      <c r="E3" s="19" cm="1">
         <f t="array" ref="E3">AVERAGEIF(Class,$A3,Test4)</f>
         <v>79.090909090909093</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F6" si="0">AVERAGE(B3:E3)</f>
         <v>75.318181818181813</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22" cm="1">
+      <c r="B4" s="19" cm="1">
         <f t="array" ref="B4">AVERAGEIF(Class,$A4,Test1)</f>
         <v>75.909090909090907</v>
       </c>
-      <c r="C4" s="22" cm="1">
+      <c r="C4" s="19" cm="1">
         <f t="array" ref="C4">AVERAGEIF(Class,$A4,Test2)</f>
         <v>68.272727272727266</v>
       </c>
-      <c r="D4" s="22" cm="1">
+      <c r="D4" s="19" cm="1">
         <f t="array" ref="D4">AVERAGEIF(Class,$A4,Test3)</f>
         <v>69</v>
       </c>
-      <c r="E4" s="22" cm="1">
+      <c r="E4" s="19" cm="1">
         <f t="array" ref="E4">AVERAGEIF(Class,$A4,Test4)</f>
         <v>81.36363636363636</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>73.63636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="22" cm="1">
+      <c r="B5" s="19" cm="1">
         <f t="array" ref="B5">AVERAGEIF(Class,$A5,Test1)</f>
         <v>74.5</v>
       </c>
-      <c r="C5" s="22" cm="1">
+      <c r="C5" s="19" cm="1">
         <f t="array" ref="C5">AVERAGEIF(Class,$A5,Test2)</f>
         <v>74.611111111111114</v>
       </c>
-      <c r="D5" s="22" cm="1">
+      <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">AVERAGEIF(Class,$A5,Test3)</f>
         <v>70</v>
       </c>
-      <c r="E5" s="22" cm="1">
+      <c r="E5" s="19" cm="1">
         <f t="array" ref="E5">AVERAGEIF(Class,$A5,Test4)</f>
         <v>68.055555555555557</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>71.791666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="22" cm="1">
+      <c r="B6" s="19" cm="1">
         <f t="array" ref="B6">AVERAGEIF(Class,$A6,Test1)</f>
         <v>72.181818181818187</v>
       </c>
-      <c r="C6" s="22" cm="1">
+      <c r="C6" s="19" cm="1">
         <f t="array" ref="C6">AVERAGEIF(Class,$A6,Test2)</f>
         <v>64.909090909090907</v>
       </c>
-      <c r="D6" s="22" cm="1">
+      <c r="D6" s="19" cm="1">
         <f t="array" ref="D6">AVERAGEIF(Class,$A6,Test3)</f>
         <v>76.272727272727266</v>
       </c>
-      <c r="E6" s="22" cm="1">
+      <c r="E6" s="19" cm="1">
         <f t="array" ref="E6">AVERAGEIF(Class,$A6,Test4)</f>
         <v>69.090909090909093</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>70.613636363636374</v>
       </c>
@@ -10658,7 +10658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECD3AED-D954-4701-A33C-2B7CB3A5C5B8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -10688,13 +10688,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="C2" s="20">
         <v>0.96</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>0.92</v>
       </c>
     </row>
@@ -10702,13 +10702,13 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="B3" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="20">
         <v>0.93</v>
       </c>
     </row>
@@ -10716,13 +10716,13 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="20">
         <v>0.96</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>0.92</v>
       </c>
     </row>
@@ -10730,13 +10730,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>0.93</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>0.96</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>0.93</v>
       </c>
     </row>
@@ -10744,13 +10744,13 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>0.95</v>
       </c>
     </row>
@@ -10758,13 +10758,13 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C7" s="20">
         <v>0.99</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>0.96</v>
       </c>
     </row>
@@ -10772,13 +10772,13 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>0.93</v>
       </c>
-      <c r="C8" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.96</v>
       </c>
     </row>
@@ -10786,13 +10786,13 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="20">
         <v>0.96</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>0.95</v>
       </c>
     </row>
@@ -10800,13 +10800,13 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>0.92</v>
       </c>
-      <c r="C10" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="20">
         <v>0.95</v>
       </c>
     </row>
@@ -10814,13 +10814,13 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="B11" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="D11" s="20">
         <v>0.94</v>
       </c>
     </row>
@@ -10828,15 +10828,15 @@
       <c r="A12" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <f>AVERAGE(B2:B11)</f>
         <v>0.94100000000000006</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <f t="shared" ref="C12:D12" si="0">AVERAGE(C2:C11)</f>
         <v>0.95899999999999996</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>0.94100000000000006</v>
       </c>
